--- a/Данные пользователей.xlsx
+++ b/Данные пользователей.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zimin/Documents/Github/client_for_lms_moodle_v2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74EEFA96-6973-DB41-BEED-2B6EB2EEAFFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F487E9-4348-434E-9D46-84DBAA4D4E4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{EA129DAC-86FB-584A-BDFE-20F539E357EE}"/>
   </bookViews>
@@ -535,7 +535,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
